--- a/2022/Standings_Week7.xlsx
+++ b/2022/Standings_Week7.xlsx
@@ -470,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -615,14 +615,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Tyler M.</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -634,20 +634,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Tyler M.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
         <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
